--- a/Iram/Login_SignIn_Excel_Connect/Login.xlsx
+++ b/Iram/Login_SignIn_Excel_Connect/Login.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
@@ -482,6 +482,18 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>hello.moto@gmail.com</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
